--- a/Restaurants.xlsx
+++ b/Restaurants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewwillenbring/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FE83E46-7583-054B-AED1-C09297BF326B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2277AF-05BC-3C47-A8F3-07D13DDA8233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="1060" windowWidth="15700" windowHeight="17440" xr2:uid="{2FAA2295-5199-4E48-A267-4ED11B1F8620}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -212,6 +212,36 @@
   </si>
   <si>
     <t>Asian</t>
+  </si>
+  <si>
+    <t>Taco Joint</t>
+  </si>
+  <si>
+    <t>El Chilito</t>
+  </si>
+  <si>
+    <t>Juan in a Million</t>
+  </si>
+  <si>
+    <t>Taco Flats</t>
+  </si>
+  <si>
+    <t>Vaquero Taquero</t>
+  </si>
+  <si>
+    <t>Veracruz</t>
+  </si>
+  <si>
+    <t>Rudy's</t>
+  </si>
+  <si>
+    <t>Texas Honey Ham</t>
+  </si>
+  <si>
+    <t>Tacos</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
@@ -563,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71B5DEC-5EA0-D646-BE4E-20505B6AD461}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1148,6 +1178,118 @@
         <v>26</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
